--- a/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.95</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.26</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.18</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.40</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3254</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>59.88</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.99</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6533</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9865</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5866</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3932</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="3">
@@ -1029,14 +1124,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="4">
@@ -1045,14 +1140,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3.1</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1156,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>3.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4553</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.58</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1219,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="4">
@@ -1140,14 +1235,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="5">
@@ -1156,14 +1251,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>3.1</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="6">
@@ -1172,13 +1267,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>3.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7105</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.46</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1314,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.58</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1330,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="5">
@@ -1251,14 +1346,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="6">
@@ -1267,14 +1362,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>3.1</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="7">
@@ -1283,13 +1378,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>3.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,167 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006551</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚价值领航混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6974</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007130</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中庚小盘价值股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.71</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3254</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D5" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>59.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6533</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D7" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>3.68</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -627,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -678,112 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.79</t>
+          <t>38.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5271</t>
+          <t>0.7105</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007130</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中庚小盘价值股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9865</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>59.63</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5866</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +720,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -848,36 +750,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.03</t>
+          <t>24.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3150</t>
+          <t>0.4553</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -912,7 +814,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -952,26 +854,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.22</t>
+          <t>36.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3932</t>
+          <t>1.5800</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1006,7 +908,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1046,26 +948,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.49</t>
+          <t>51.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5800</t>
+          <t>1.3932</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1002,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1130,36 +1032,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.35</t>
+          <t>23.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4553</t>
+          <t>1.3150</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1173,7 +1075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1194,7 +1096,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1224,36 +1126,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>007130</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>中庚小盘价值股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>38.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7105</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9865</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5866</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1267,144 +1245,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.46</v>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3254</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6533</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.68</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.71</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.46</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.58</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>3.1</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>3.68</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>398061</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>中海消费混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.20</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>85.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7105</t>
+          <t>0.1728</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>43.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>43.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -750,32 +843,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.35</t>
+          <t>38.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4553</t>
+          <t>0.7105</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -844,36 +937,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.49</t>
+          <t>24.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5800</t>
+          <t>0.4553</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +1001,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -948,26 +1041,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.22</t>
+          <t>36.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3932</t>
+          <t>1.5800</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1042,26 +1135,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.03</t>
+          <t>51.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3150</t>
+          <t>1.3932</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1070,6 +1163,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1239,7 +1426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603600-永艺股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.71</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.46</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.58</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>3.1</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,204 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
         <v>3.68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3254</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6533</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -673,36 +860,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>398061</t>
+          <t>001917</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中海消费混合</t>
+          <t>招商量化精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.30</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1728</t>
+          <t>0.0869</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +898,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001735</t>
+          <t>007950</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发百发大数据策略成长灵活配置混合E</t>
+          <t>招商量化精选股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>43.77</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0776</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +936,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001734</t>
+          <t>007903</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发百发大数据策略成长灵活配置混合A</t>
+          <t>长城量化小盘股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>43.77</t>
+          <t>89.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -843,36 +1030,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>398061</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>中海消费混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.20</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>85.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7105</t>
+          <t>0.1728</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>43.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>43.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -937,32 +1200,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.35</t>
+          <t>38.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4553</t>
+          <t>0.7105</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1031,36 +1294,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.49</t>
+          <t>24.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5800</t>
+          <t>0.4553</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1358,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1135,26 +1398,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.22</t>
+          <t>36.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3932</t>
+          <t>1.5800</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1229,26 +1492,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.03</t>
+          <t>51.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3150</t>
+          <t>1.3932</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1257,6 +1520,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1424,174 +1781,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006551</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚价值领航混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6974</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007130</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中庚小盘价值股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.71</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3254</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>59.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6533</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>